--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/CENTRALIZADORA DEL ACTIVO.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/CENTRALIZADORA DEL ACTIVO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5073D173-08A1-4903-AAD8-55CB13DCD2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1918524E-8583-4853-9FFB-19FB4DF9F736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t xml:space="preserve">AUDITORIA FINANCIERA </t>
   </si>
   <si>
-    <t>DEL 01 DE ENERO AL 31  DE DICIEMBRE DE 2024</t>
-  </si>
-  <si>
     <t>CEDULA CENTRALIZADORA DEL ACTIVO</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Logo</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
@@ -399,28 +399,28 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,7 +872,7 @@
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,8 +888,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
-        <v>33</v>
+      <c r="B2" s="38" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -901,7 +901,7 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="42"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -912,7 +912,7 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -921,15 +921,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="42"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="35" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="7"/>
@@ -937,10 +937,10 @@
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="9" t="s">
@@ -950,12 +950,12 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="C7" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
+      <c r="C7" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="3"/>
       <c r="H7" s="9" t="s">
         <v>1</v>
@@ -964,12 +964,12 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
-      <c r="C8" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+      <c r="C8" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="3"/>
       <c r="H8" s="9" t="s">
         <v>2</v>
@@ -979,10 +979,10 @@
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="40"/>
+      <c r="D9" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="42"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="9" t="s">
@@ -991,14 +991,14 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B11" s="29"/>
@@ -1012,10 +1012,10 @@
       <c r="F11" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="36"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="32" t="s">
         <v>5</v>
       </c>
